--- a/3_分析/1_GD包网数据需求群/1_指标数据.xlsx
+++ b/3_分析/1_GD包网数据需求群/1_指标数据.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="116">
   <si>
     <t>站点ID</t>
   </si>
@@ -52,322 +52,313 @@
     <t>公司净收入</t>
   </si>
   <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-05-21</t>
+  </si>
+  <si>
+    <t>2025-05-22</t>
+  </si>
+  <si>
+    <t>2025-05-16</t>
+  </si>
+  <si>
+    <t>2025-05-17</t>
+  </si>
+  <si>
+    <t>2025-05-18</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
     <t>2025-04-16</t>
   </si>
   <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>存款额</t>
+  </si>
+  <si>
+    <t>存款人数</t>
+  </si>
+  <si>
+    <t>转化率</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>红利</t>
+  </si>
+  <si>
+    <t>返水</t>
+  </si>
+  <si>
+    <t>首存日期</t>
+  </si>
+  <si>
+    <t>第一周留存</t>
+  </si>
+  <si>
+    <t>第二周留存</t>
+  </si>
+  <si>
+    <t>第三周留存</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>2025-05-03</t>
+  </si>
+  <si>
+    <t>2025-05-04</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-05-08</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>2025-05-11</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>2025-05-13</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
     <t>2025-05-15</t>
   </si>
   <si>
-    <t>2025-05-16</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>2025-05-11</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>2025-05-13</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-04-12</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>存款额</t>
-  </si>
-  <si>
-    <t>存款人数</t>
-  </si>
-  <si>
-    <t>转化率</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>62%</t>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>57%</t>
   </si>
   <si>
     <t>50%</t>
   </si>
   <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>红利</t>
-  </si>
-  <si>
-    <t>返水</t>
-  </si>
-  <si>
-    <t>首存日期</t>
-  </si>
-  <si>
-    <t>第一周留存</t>
-  </si>
-  <si>
-    <t>第二周留存</t>
-  </si>
-  <si>
-    <t>第三周留存</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-04-19</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
-    <t>2025-04-23</t>
-  </si>
-  <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>2025-04-30</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>2025-05-02</t>
-  </si>
-  <si>
-    <t>2025-05-03</t>
-  </si>
-  <si>
-    <t>2025-05-04</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>2025-05-06</t>
-  </si>
-  <si>
-    <t>2025-05-07</t>
-  </si>
-  <si>
-    <t>2025-05-08</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>47%</t>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26%</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>7%</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>31%</t>
   </si>
   <si>
     <t>35%</t>
   </si>
   <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>29%</t>
-  </si>
-  <si>
-    <t>24%</t>
-  </si>
-  <si>
-    <t>33%</t>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>25%</t>
   </si>
   <si>
     <t>28%</t>
   </si>
   <si>
-    <t>26%</t>
-  </si>
-  <si>
-    <t>19%</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>13%</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
     <t>21%</t>
   </si>
   <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>12%</t>
-  </si>
-  <si>
-    <t>14%</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>11%</t>
-  </si>
-  <si>
-    <t>9%</t>
-  </si>
-  <si>
-    <t>8%</t>
-  </si>
-  <si>
-    <t>3%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>34%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>31%</t>
-  </si>
-  <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>22%</t>
-  </si>
-  <si>
-    <t>10%</t>
+    <t>16%</t>
   </si>
   <si>
     <t>上月活跃天数</t>
@@ -780,25 +771,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="D2">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="E2">
-        <v>4976</v>
+        <v>4915</v>
       </c>
       <c r="F2">
-        <v>59309706.95</v>
+        <v>65866707.45</v>
       </c>
       <c r="G2">
-        <v>51688211.24</v>
+        <v>58020559.12</v>
       </c>
       <c r="H2">
-        <v>2807470.04</v>
+        <v>-1675452.11</v>
       </c>
       <c r="I2">
-        <v>2212661.5668</v>
+        <v>-1789725.7364</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -809,25 +800,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D3">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E3">
-        <v>4840</v>
+        <v>5050</v>
       </c>
       <c r="F3">
-        <v>59871006.45</v>
+        <v>50046356.47</v>
       </c>
       <c r="G3">
-        <v>53295621.41</v>
+        <v>44430746.37</v>
       </c>
       <c r="H3">
-        <v>3085022.45</v>
+        <v>763536.4</v>
       </c>
       <c r="I3">
-        <v>2385497.6984</v>
+        <v>391417.2692</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -838,25 +829,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>641</v>
+        <v>576</v>
       </c>
       <c r="D4">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E4">
-        <v>4936</v>
+        <v>4826</v>
       </c>
       <c r="F4">
-        <v>53265560.68</v>
+        <v>75505931.3</v>
       </c>
       <c r="G4">
-        <v>46766315.47</v>
+        <v>65831646.43000001</v>
       </c>
       <c r="H4">
-        <v>1481512.02</v>
+        <v>-2170171.05</v>
       </c>
       <c r="I4">
-        <v>940113.3388</v>
+        <v>-2234383.853999999</v>
       </c>
     </row>
   </sheetData>
@@ -909,25 +900,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="D2">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="E2">
-        <v>4976</v>
+        <v>4915</v>
       </c>
       <c r="F2">
-        <v>59309706.95</v>
+        <v>65866707.45</v>
       </c>
       <c r="G2">
-        <v>51688211.24</v>
+        <v>58020559.12</v>
       </c>
       <c r="H2">
-        <v>2807470.04</v>
+        <v>-1675452.11</v>
       </c>
       <c r="I2">
-        <v>2212661.5668</v>
+        <v>-1789725.7364</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -938,25 +929,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D3">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E3">
-        <v>4840</v>
+        <v>5050</v>
       </c>
       <c r="F3">
-        <v>59871006.45</v>
+        <v>50046356.47</v>
       </c>
       <c r="G3">
-        <v>53295621.41</v>
+        <v>44430746.37</v>
       </c>
       <c r="H3">
-        <v>3085022.45</v>
+        <v>763536.4</v>
       </c>
       <c r="I3">
-        <v>2385497.6984</v>
+        <v>391417.2692</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -967,25 +958,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>641</v>
+        <v>576</v>
       </c>
       <c r="D4">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E4">
-        <v>4936</v>
+        <v>4826</v>
       </c>
       <c r="F4">
-        <v>53265560.68</v>
+        <v>75505931.3</v>
       </c>
       <c r="G4">
-        <v>46766315.47</v>
+        <v>65831646.43000001</v>
       </c>
       <c r="H4">
-        <v>1481512.02</v>
+        <v>-2170171.05</v>
       </c>
       <c r="I4">
-        <v>940113.3388</v>
+        <v>-2234383.853999999</v>
       </c>
     </row>
   </sheetData>
@@ -1023,10 +1014,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>2229686.77</v>
+        <v>1484760.44</v>
       </c>
       <c r="D2">
-        <v>1400129.0876</v>
+        <v>942971.9484</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1037,10 +1028,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>200087.53</v>
+        <v>334866.62</v>
       </c>
       <c r="D3">
-        <v>-157820.0139999999</v>
+        <v>-146756.4528</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1051,10 +1042,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>499143.6</v>
+        <v>1794065.31</v>
       </c>
       <c r="D4">
-        <v>133839.3712</v>
+        <v>1324145.8576</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1065,10 +1056,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>2533480.82</v>
+        <v>769972.6699999999</v>
       </c>
       <c r="D5">
-        <v>1920337.5252</v>
+        <v>390753.4075999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1079,10 +1070,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>1532101.06</v>
+        <v>2662014.46</v>
       </c>
       <c r="D6">
-        <v>1040973.7248</v>
+        <v>2698157.618</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1093,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3085022.45</v>
+        <v>763536.4</v>
       </c>
       <c r="D7">
-        <v>2385497.6984</v>
+        <v>391417.2692</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1107,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1481512.02</v>
+        <v>-2170171.05</v>
       </c>
       <c r="D8">
-        <v>940113.3388</v>
+        <v>-2234383.853999999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1121,10 +1112,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>516203.12</v>
+        <v>2807470.04</v>
       </c>
       <c r="D9">
-        <v>163522.9076</v>
+        <v>2212661.5668</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1135,10 +1126,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>1372116</v>
+        <v>-239455.16</v>
       </c>
       <c r="D10">
-        <v>973192.6383999998</v>
+        <v>-492746.7872</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1149,10 +1140,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>2307877.5</v>
+        <v>-1640081.08</v>
       </c>
       <c r="D11">
-        <v>2047015.0452</v>
+        <v>-1776134.2896</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1163,10 +1154,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>1736326.99</v>
+        <v>4106403.49</v>
       </c>
       <c r="D12">
-        <v>1192884.552</v>
+        <v>3093459.198</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1177,10 +1168,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>330631.6299999999</v>
+        <v>536736.8100000001</v>
       </c>
       <c r="D13">
-        <v>19562.53159999997</v>
+        <v>-24491.52919999999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1191,10 +1182,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>-799816.55</v>
+        <v>2398404.05</v>
       </c>
       <c r="D14">
-        <v>-1024941.724</v>
+        <v>1707642.8592</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1205,10 +1196,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>2807470.04</v>
+        <v>-1675452.11</v>
       </c>
       <c r="D15">
-        <v>2212661.5668</v>
+        <v>-1789725.7364</v>
       </c>
     </row>
   </sheetData>
@@ -1246,10 +1237,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>9377667.620000001</v>
+        <v>8914622.810000001</v>
       </c>
       <c r="D2">
-        <v>2963</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1260,10 +1251,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>10672622.35</v>
+        <v>9477530.1</v>
       </c>
       <c r="D3">
-        <v>3098</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1274,10 +1265,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>8979444.059999999</v>
+        <v>9198719.120000001</v>
       </c>
       <c r="D4">
-        <v>2934</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1288,10 +1279,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>9265915.34</v>
+        <v>7706243.380000001</v>
       </c>
       <c r="D5">
-        <v>2888</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1302,10 +1293,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>9433270.539999999</v>
+        <v>10003597.69</v>
       </c>
       <c r="D6">
-        <v>2906</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1316,10 +1307,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>9457418.02</v>
+        <v>9806277.16</v>
       </c>
       <c r="D7">
-        <v>2993</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1330,10 +1321,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>8914622.810000001</v>
+        <v>9061390.48</v>
       </c>
       <c r="D8">
-        <v>3040</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1344,10 +1335,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>7740950.439999999</v>
+        <v>9934980.559999999</v>
       </c>
       <c r="D9">
-        <v>2918</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1358,10 +1349,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>8909226.42</v>
+        <v>8037552.939999999</v>
       </c>
       <c r="D10">
-        <v>3036</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1372,10 +1363,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>9096263.450000001</v>
+        <v>7786716.59</v>
       </c>
       <c r="D11">
-        <v>3163</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1386,10 +1377,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>9290678.15</v>
+        <v>11834332.58</v>
       </c>
       <c r="D12">
-        <v>3117</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1400,10 +1391,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>8379346.359999999</v>
+        <v>10011995.57</v>
       </c>
       <c r="D13">
-        <v>2859</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1414,10 +1405,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>7319298.699999999</v>
+        <v>9666580.58</v>
       </c>
       <c r="D14">
-        <v>2832</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1428,10 +1419,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>9934980.559999999</v>
+        <v>7868649.09</v>
       </c>
       <c r="D15">
-        <v>3074</v>
+        <v>3078</v>
       </c>
     </row>
   </sheetData>
@@ -1466,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>44697635.14</v>
+        <v>46769287.05</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1477,7 +1468,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>52896132.73</v>
+        <v>53025470.48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1488,7 +1479,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>45618121.74</v>
+        <v>49301013.68000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1499,7 +1490,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>50180104.91</v>
+        <v>39362423.53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1510,7 +1501,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>50215328.54</v>
+        <v>51658702.66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1521,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>53295621.41</v>
+        <v>44430746.37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1532,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>46766315.47</v>
+        <v>65831646.43000001</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1543,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>35176842.38</v>
+        <v>51688211.24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1554,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>42250635.16</v>
+        <v>47443009.66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1565,7 +1556,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>42345411.16</v>
+        <v>63104551.11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1576,7 +1567,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>39495074.87</v>
+        <v>84186793.55</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1587,7 +1578,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>41538214.86</v>
+        <v>67075896.16999999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1598,7 +1589,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>42454169.55</v>
+        <v>63773024.59999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1609,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>51688211.24</v>
+        <v>58020559.12</v>
       </c>
     </row>
   </sheetData>
@@ -1650,10 +1641,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="D2">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -1667,13 +1658,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>745</v>
+        <v>698</v>
       </c>
       <c r="D3">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1684,13 +1675,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>730</v>
+        <v>587</v>
       </c>
       <c r="D4">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1701,13 +1692,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D5">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1718,13 +1709,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>623</v>
+        <v>550</v>
       </c>
       <c r="D6">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1735,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D7">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1752,13 +1743,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>641</v>
+        <v>576</v>
       </c>
       <c r="D8">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1782,10 +1773,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1796,10 +1787,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>274397.72</v>
+        <v>132324.11</v>
       </c>
       <c r="D2">
-        <v>247841.97</v>
+        <v>258142.44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1810,10 +1801,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>142011.09</v>
+        <v>270860.44</v>
       </c>
       <c r="D3">
-        <v>219176.21</v>
+        <v>213556.36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1824,10 +1815,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>138731.08</v>
+        <v>144662.92</v>
       </c>
       <c r="D4">
-        <v>254304.68</v>
+        <v>223918.98</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1838,10 +1829,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>130120.35</v>
+        <v>165152.44</v>
       </c>
       <c r="D5">
-        <v>211681.38</v>
+        <v>254105.13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1852,10 +1843,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>127783.33</v>
+        <v>109589.95</v>
       </c>
       <c r="D6">
-        <v>258344.41</v>
+        <v>177497.64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1866,10 +1857,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>115880.04</v>
+        <v>91322.63</v>
       </c>
       <c r="D7">
-        <v>242875.36</v>
+        <v>263293.16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1880,10 +1871,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>132324.11</v>
+        <v>129981.55</v>
       </c>
       <c r="D8">
-        <v>258142.44</v>
+        <v>194651.78</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1894,10 +1885,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>139431.74</v>
+        <v>161665.18</v>
       </c>
       <c r="D9">
-        <v>220499.07</v>
+        <v>216688.07</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1908,10 +1899,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>124410.22</v>
+        <v>125261.03</v>
       </c>
       <c r="D10">
-        <v>154768.62</v>
+        <v>221846.69</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1922,10 +1913,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>250756.52</v>
+        <v>131688.5</v>
       </c>
       <c r="D11">
-        <v>191554.23</v>
+        <v>224633.4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1936,10 +1927,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>146912.94</v>
+        <v>292115.49</v>
       </c>
       <c r="D12">
-        <v>212267</v>
+        <v>304156.9399999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1950,10 +1941,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>134794.28</v>
+        <v>176466.79</v>
       </c>
       <c r="D13">
-        <v>173633.34</v>
+        <v>406419.42</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1964,10 +1955,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>129551.19</v>
+        <v>158413.55</v>
       </c>
       <c r="D14">
-        <v>191551.97</v>
+        <v>325170.95</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1978,10 +1969,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>161665.18</v>
+        <v>137692.63</v>
       </c>
       <c r="D15">
-        <v>216688.07</v>
+        <v>325505.68</v>
       </c>
     </row>
   </sheetData>
@@ -1999,338 +1990,338 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2338,13 +2329,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2352,13 +2343,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2366,13 +2357,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2380,13 +2371,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2394,13 +2385,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2408,13 +2399,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2422,13 +2413,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2446,338 +2437,338 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
         <v>111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2785,13 +2776,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2799,13 +2790,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2813,13 +2804,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2830,10 +2821,10 @@
         <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2841,13 +2832,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2858,10 +2849,10 @@
         <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2869,13 +2860,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2893,16 +2884,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2916,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1728</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2930,7 +2921,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1051</v>
+        <v>999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2944,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>763</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2958,7 +2949,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2972,7 +2963,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>438</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2986,7 +2977,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3000,7 +2991,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>347</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3014,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3028,7 +3019,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>304</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3042,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>310</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3056,7 +3047,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>315</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3070,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>279</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3084,7 +3075,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>308</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3098,7 +3089,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>344</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3112,7 +3103,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>446</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3126,7 +3117,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>863</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3136,6 +3127,12 @@
       <c r="B18">
         <v>161</v>
       </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>224</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
@@ -3144,6 +3141,12 @@
       <c r="B19">
         <v>149</v>
       </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>229</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
@@ -3152,6 +3155,12 @@
       <c r="B20">
         <v>134</v>
       </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>260</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
@@ -3160,6 +3169,12 @@
       <c r="B21">
         <v>140</v>
       </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>286</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
@@ -3168,6 +3183,12 @@
       <c r="B22">
         <v>136</v>
       </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>320</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
@@ -3175,6 +3196,12 @@
       </c>
       <c r="B23">
         <v>136</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>610</v>
       </c>
     </row>
     <row r="24" spans="1:4">

--- a/3_分析/1_GD包网数据需求群/1_指标数据.xlsx
+++ b/3_分析/1_GD包网数据需求群/1_指标数据.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="117">
   <si>
     <t>站点ID</t>
   </si>
@@ -52,168 +52,168 @@
     <t>公司净收入</t>
   </si>
   <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-05-22</t>
+  </si>
+  <si>
+    <t>2025-05-23</t>
+  </si>
+  <si>
+    <t>2025-05-17</t>
+  </si>
+  <si>
+    <t>2025-05-18</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>2025-05-21</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
     <t>2025-04-22</t>
   </si>
   <si>
-    <t>2025-05-21</t>
-  </si>
-  <si>
-    <t>2025-05-22</t>
+    <t>存款额</t>
+  </si>
+  <si>
+    <t>存款人数</t>
+  </si>
+  <si>
+    <t>转化率</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>红利</t>
+  </si>
+  <si>
+    <t>返水</t>
+  </si>
+  <si>
+    <t>首存日期</t>
+  </si>
+  <si>
+    <t>第一周留存</t>
+  </si>
+  <si>
+    <t>第二周留存</t>
+  </si>
+  <si>
+    <t>第三周留存</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>2025-05-03</t>
+  </si>
+  <si>
+    <t>2025-05-04</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-05-08</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>2025-05-11</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>2025-05-13</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
   </si>
   <si>
     <t>2025-05-16</t>
   </si>
   <si>
-    <t>2025-05-17</t>
-  </si>
-  <si>
-    <t>2025-05-18</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>2025-05-20</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-04-19</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>存款额</t>
-  </si>
-  <si>
-    <t>存款人数</t>
-  </si>
-  <si>
-    <t>转化率</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>红利</t>
-  </si>
-  <si>
-    <t>返水</t>
-  </si>
-  <si>
-    <t>首存日期</t>
-  </si>
-  <si>
-    <t>第一周留存</t>
-  </si>
-  <si>
-    <t>第二周留存</t>
-  </si>
-  <si>
-    <t>第三周留存</t>
-  </si>
-  <si>
-    <t>2025-04-23</t>
-  </si>
-  <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>2025-04-30</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>2025-05-02</t>
-  </si>
-  <si>
-    <t>2025-05-03</t>
-  </si>
-  <si>
-    <t>2025-05-04</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>2025-05-06</t>
-  </si>
-  <si>
-    <t>2025-05-07</t>
-  </si>
-  <si>
-    <t>2025-05-08</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>2025-05-11</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>2025-05-13</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
     <t>52%</t>
   </si>
   <si>
     <t>49%</t>
   </si>
   <si>
-    <t>54%</t>
-  </si>
-  <si>
     <t>43%</t>
   </si>
   <si>
@@ -232,111 +232,117 @@
     <t>57%</t>
   </si>
   <si>
+    <t>58%</t>
+  </si>
+  <si>
     <t>50%</t>
   </si>
   <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>26%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
     <t>33%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26%</t>
-  </si>
-  <si>
-    <t>19%</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>13%</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>22%</t>
-  </si>
-  <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>7%</t>
-  </si>
-  <si>
-    <t>12%</t>
-  </si>
-  <si>
-    <t>11%</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>8%</t>
-  </si>
-  <si>
-    <t>14%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>31%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
     <t>30%</t>
   </si>
   <si>
@@ -349,10 +355,7 @@
     <t>38%</t>
   </si>
   <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>28%</t>
+    <t>32%</t>
   </si>
   <si>
     <t>21%</t>
@@ -771,25 +774,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="D2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E2">
-        <v>4915</v>
+        <v>5079</v>
       </c>
       <c r="F2">
-        <v>65866707.45</v>
+        <v>68325914.61999999</v>
       </c>
       <c r="G2">
-        <v>58020559.12</v>
+        <v>60706390.65</v>
       </c>
       <c r="H2">
-        <v>-1675452.11</v>
+        <v>326553.09</v>
       </c>
       <c r="I2">
-        <v>-1789725.7364</v>
+        <v>-82646.18280000007</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -800,25 +803,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D3">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="E3">
-        <v>5050</v>
+        <v>4826</v>
       </c>
       <c r="F3">
-        <v>50046356.47</v>
+        <v>75537308.78999999</v>
       </c>
       <c r="G3">
-        <v>44430746.37</v>
+        <v>65860975.15</v>
       </c>
       <c r="H3">
-        <v>763536.4</v>
+        <v>-2176564.97</v>
       </c>
       <c r="I3">
-        <v>391417.2692</v>
+        <v>-2240010.503599999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -829,25 +832,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D4">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="E4">
-        <v>4826</v>
+        <v>4938</v>
       </c>
       <c r="F4">
-        <v>75505931.3</v>
+        <v>47845150.73999999</v>
       </c>
       <c r="G4">
-        <v>65831646.43000001</v>
+        <v>42624608.51</v>
       </c>
       <c r="H4">
-        <v>-2170171.05</v>
+        <v>-1215102.3</v>
       </c>
       <c r="I4">
-        <v>-2234383.853999999</v>
+        <v>2156490.7784</v>
       </c>
     </row>
   </sheetData>
@@ -900,25 +903,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="D2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E2">
-        <v>4915</v>
+        <v>5079</v>
       </c>
       <c r="F2">
-        <v>65866707.45</v>
+        <v>68325914.61999999</v>
       </c>
       <c r="G2">
-        <v>58020559.12</v>
+        <v>60706390.65</v>
       </c>
       <c r="H2">
-        <v>-1675452.11</v>
+        <v>326553.09</v>
       </c>
       <c r="I2">
-        <v>-1789725.7364</v>
+        <v>-82646.18280000007</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -929,25 +932,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D3">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="E3">
-        <v>5050</v>
+        <v>4826</v>
       </c>
       <c r="F3">
-        <v>50046356.47</v>
+        <v>75537308.78999999</v>
       </c>
       <c r="G3">
-        <v>44430746.37</v>
+        <v>65860975.15</v>
       </c>
       <c r="H3">
-        <v>763536.4</v>
+        <v>-2176564.97</v>
       </c>
       <c r="I3">
-        <v>391417.2692</v>
+        <v>-2240010.503599999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -958,25 +961,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D4">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="E4">
-        <v>4826</v>
+        <v>4938</v>
       </c>
       <c r="F4">
-        <v>75505931.3</v>
+        <v>47845150.73999999</v>
       </c>
       <c r="G4">
-        <v>65831646.43000001</v>
+        <v>42624608.51</v>
       </c>
       <c r="H4">
-        <v>-2170171.05</v>
+        <v>-1215102.3</v>
       </c>
       <c r="I4">
-        <v>-2234383.853999999</v>
+        <v>2156490.7784</v>
       </c>
     </row>
   </sheetData>
@@ -1014,10 +1017,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>1484760.44</v>
+        <v>334866.62</v>
       </c>
       <c r="D2">
-        <v>942971.9484</v>
+        <v>-146756.4528</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1028,10 +1031,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>334866.62</v>
+        <v>1794065.31</v>
       </c>
       <c r="D3">
-        <v>-146756.4528</v>
+        <v>1324145.8576</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1042,10 +1045,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1794065.31</v>
+        <v>769972.6699999999</v>
       </c>
       <c r="D4">
-        <v>1324145.8576</v>
+        <v>390753.4075999999</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1056,10 +1059,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>769972.6699999999</v>
+        <v>2662014.46</v>
       </c>
       <c r="D5">
-        <v>390753.4075999999</v>
+        <v>2698157.618</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1070,10 +1073,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>2662014.46</v>
+        <v>763536.4</v>
       </c>
       <c r="D6">
-        <v>2698157.618</v>
+        <v>391417.2692</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1084,10 +1087,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>763536.4</v>
+        <v>-2176564.97</v>
       </c>
       <c r="D7">
-        <v>391417.2692</v>
+        <v>-2240010.503599999</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1098,10 +1101,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>-2170171.05</v>
+        <v>-1215102.3</v>
       </c>
       <c r="D8">
-        <v>-2234383.853999999</v>
+        <v>2156490.7784</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1112,10 +1115,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>2807470.04</v>
+        <v>-239455.16</v>
       </c>
       <c r="D9">
-        <v>2212661.5668</v>
+        <v>-492746.7872</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1126,10 +1129,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>-239455.16</v>
+        <v>-1640081.08</v>
       </c>
       <c r="D10">
-        <v>-492746.7872</v>
+        <v>-1776134.2896</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1140,10 +1143,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>-1640081.08</v>
+        <v>4106403.49</v>
       </c>
       <c r="D11">
-        <v>-1776134.2896</v>
+        <v>3093459.198</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1154,10 +1157,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>4106403.49</v>
+        <v>536736.8100000001</v>
       </c>
       <c r="D12">
-        <v>3093459.198</v>
+        <v>-24491.52919999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1168,10 +1171,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>536736.8100000001</v>
+        <v>2398404.05</v>
       </c>
       <c r="D13">
-        <v>-24491.52919999999</v>
+        <v>1707642.8592</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1182,10 +1185,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>2398404.05</v>
+        <v>-1675452.11</v>
       </c>
       <c r="D14">
-        <v>1707642.8592</v>
+        <v>-1789725.7364</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1196,10 +1199,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>-1675452.11</v>
+        <v>326553.09</v>
       </c>
       <c r="D15">
-        <v>-1789725.7364</v>
+        <v>-82646.18280000007</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1240,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>8914622.810000001</v>
+        <v>9477530.1</v>
       </c>
       <c r="D2">
-        <v>3040</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1251,10 +1254,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>9477530.1</v>
+        <v>9198719.120000001</v>
       </c>
       <c r="D3">
-        <v>3154</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1265,10 +1268,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>9198719.120000001</v>
+        <v>7706243.380000001</v>
       </c>
       <c r="D4">
-        <v>3066</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1279,10 +1282,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>7706243.380000001</v>
+        <v>10003597.69</v>
       </c>
       <c r="D5">
-        <v>2834</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1293,10 +1296,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>10003597.69</v>
+        <v>9806277.16</v>
       </c>
       <c r="D6">
-        <v>2954</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1307,10 +1310,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>9806277.16</v>
+        <v>9061390.48</v>
       </c>
       <c r="D7">
-        <v>3105</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1321,10 +1324,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>9061390.48</v>
+        <v>9062695</v>
       </c>
       <c r="D8">
-        <v>2985</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1335,10 +1338,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>9934980.559999999</v>
+        <v>8037552.939999999</v>
       </c>
       <c r="D9">
-        <v>3074</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1349,10 +1352,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>8037552.939999999</v>
+        <v>7786716.59</v>
       </c>
       <c r="D10">
-        <v>2962</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1363,10 +1366,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>7786716.59</v>
+        <v>11834332.58</v>
       </c>
       <c r="D11">
-        <v>3060</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1377,10 +1380,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>11834332.58</v>
+        <v>10011995.57</v>
       </c>
       <c r="D12">
-        <v>3034</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1391,10 +1394,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>10011995.57</v>
+        <v>9666580.58</v>
       </c>
       <c r="D13">
-        <v>3180</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1405,10 +1408,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>9666580.58</v>
+        <v>7868649.09</v>
       </c>
       <c r="D14">
-        <v>3037</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1419,10 +1422,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>7868649.09</v>
+        <v>8684887.08</v>
       </c>
       <c r="D15">
-        <v>3078</v>
+        <v>3260</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1460,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>46769287.05</v>
+        <v>53025470.48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1468,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>53025470.48</v>
+        <v>49301013.68000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1479,7 +1482,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>49301013.68000001</v>
+        <v>39362423.53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1490,7 +1493,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>39362423.53</v>
+        <v>51658702.66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1501,7 +1504,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>51658702.66</v>
+        <v>44430746.37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1512,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>44430746.37</v>
+        <v>65860975.15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1523,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>65831646.43000001</v>
+        <v>42624608.51</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1534,7 +1537,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>51688211.24</v>
+        <v>47443009.66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1545,7 +1548,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>47443009.66</v>
+        <v>63104551.11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1556,7 +1559,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>63104551.11</v>
+        <v>84186793.55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1567,7 +1570,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>84186793.55</v>
+        <v>67075896.16999999</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1578,7 +1581,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>67075896.16999999</v>
+        <v>63773024.59999999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1589,7 +1592,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>63773024.59999999</v>
+        <v>58020559.12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1600,7 +1603,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>58020559.12</v>
+        <v>60706390.65</v>
       </c>
     </row>
   </sheetData>
@@ -1641,10 +1644,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>641</v>
+        <v>698</v>
       </c>
       <c r="D2">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -1658,13 +1661,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>698</v>
+        <v>587</v>
       </c>
       <c r="D3">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1675,13 +1678,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="D4">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1692,13 +1695,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D5">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1709,13 +1712,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="D6">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1726,13 +1729,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D7">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1743,13 +1746,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D8">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1773,10 +1776,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1787,10 +1790,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>132324.11</v>
+        <v>270860.44</v>
       </c>
       <c r="D2">
-        <v>258142.44</v>
+        <v>213556.36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1801,10 +1804,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>270860.44</v>
+        <v>144662.92</v>
       </c>
       <c r="D3">
-        <v>213556.36</v>
+        <v>223918.98</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1815,10 +1818,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>144662.92</v>
+        <v>165152.44</v>
       </c>
       <c r="D4">
-        <v>223918.98</v>
+        <v>254105.13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1829,10 +1832,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>165152.44</v>
+        <v>109589.95</v>
       </c>
       <c r="D5">
-        <v>254105.13</v>
+        <v>177497.64</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1843,10 +1846,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>109589.95</v>
+        <v>91322.63</v>
       </c>
       <c r="D6">
-        <v>177497.64</v>
+        <v>263293.16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1857,10 +1860,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>91322.63</v>
+        <v>129981.55</v>
       </c>
       <c r="D7">
-        <v>263293.16</v>
+        <v>194651.78</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1871,10 +1874,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>129981.55</v>
+        <v>118863.94</v>
       </c>
       <c r="D8">
-        <v>194651.78</v>
+        <v>203430.76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1885,10 +1888,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>161665.18</v>
+        <v>125261.03</v>
       </c>
       <c r="D9">
-        <v>216688.07</v>
+        <v>221846.69</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1899,10 +1902,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>125261.03</v>
+        <v>131688.5</v>
       </c>
       <c r="D10">
-        <v>221846.69</v>
+        <v>224633.4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1913,10 +1916,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>131688.5</v>
+        <v>292115.49</v>
       </c>
       <c r="D11">
-        <v>224633.4</v>
+        <v>304156.9399999999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1927,10 +1930,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>292115.49</v>
+        <v>176466.79</v>
       </c>
       <c r="D12">
-        <v>304156.9399999999</v>
+        <v>406419.42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1941,10 +1944,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>176466.79</v>
+        <v>158413.55</v>
       </c>
       <c r="D13">
-        <v>406419.42</v>
+        <v>325170.95</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1955,10 +1958,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>158413.55</v>
+        <v>137692.63</v>
       </c>
       <c r="D14">
-        <v>325170.95</v>
+        <v>325505.68</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1969,10 +1972,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>137692.63</v>
+        <v>144947.94</v>
       </c>
       <c r="D15">
-        <v>325505.68</v>
+        <v>293347.77</v>
       </c>
     </row>
   </sheetData>
@@ -1990,338 +1993,338 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
         <v>77</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2329,13 +2332,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2343,13 +2346,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2357,13 +2360,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2371,13 +2374,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2385,13 +2388,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2399,13 +2402,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2413,13 +2416,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2437,338 +2440,338 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
         <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2779,10 +2782,10 @@
         <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2790,13 +2793,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2804,13 +2807,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2818,13 +2821,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2832,13 +2835,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2846,13 +2849,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2860,13 +2863,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2884,16 +2887,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2907,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1663</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2921,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2935,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>744</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2949,7 +2952,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2963,7 +2966,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2977,7 +2980,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2991,7 +2994,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3019,7 +3022,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3033,7 +3036,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3047,7 +3050,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3061,7 +3064,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3075,7 +3078,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3089,7 +3092,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>229</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3103,7 +3106,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3117,7 +3120,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3131,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3145,7 +3148,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3159,7 +3162,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>260</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3173,7 +3176,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>286</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3187,7 +3190,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>320</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3201,7 +3204,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>610</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3210,6 +3213,12 @@
       </c>
       <c r="B24">
         <v>161</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:4">
